--- a/Code/Results/Cases/Case_4_132/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_132/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.031568454575867</v>
+        <v>1.093577141556132</v>
       </c>
       <c r="D2">
-        <v>1.042870215965382</v>
+        <v>1.085909644096236</v>
       </c>
       <c r="E2">
-        <v>1.048062427463749</v>
+        <v>1.104818817500664</v>
       </c>
       <c r="F2">
-        <v>1.052226341101203</v>
+        <v>1.10642821456568</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.051185010426292</v>
+        <v>1.050679878400681</v>
       </c>
       <c r="J2">
-        <v>1.052844280440363</v>
+        <v>1.098392401064319</v>
       </c>
       <c r="K2">
-        <v>1.053762941591414</v>
+        <v>1.088568854182986</v>
       </c>
       <c r="L2">
-        <v>1.058890449229348</v>
+        <v>1.107430037964381</v>
       </c>
       <c r="M2">
-        <v>1.063003047302846</v>
+        <v>1.109035432101395</v>
       </c>
       <c r="N2">
-        <v>1.054339440081515</v>
+        <v>1.0999522442612</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.041893954415721</v>
+        <v>1.095540298482043</v>
       </c>
       <c r="D3">
-        <v>1.050862576696451</v>
+        <v>1.087424598182881</v>
       </c>
       <c r="E3">
-        <v>1.05777860660466</v>
+        <v>1.106713533060759</v>
       </c>
       <c r="F3">
-        <v>1.061630494897628</v>
+        <v>1.108256164959711</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054191308184453</v>
+        <v>1.051138500537724</v>
       </c>
       <c r="J3">
-        <v>1.061304232621459</v>
+        <v>1.100017202219391</v>
       </c>
       <c r="K3">
-        <v>1.060883534930843</v>
+        <v>1.089901417140266</v>
       </c>
       <c r="L3">
-        <v>1.067721955182394</v>
+        <v>1.109144990456562</v>
       </c>
       <c r="M3">
-        <v>1.071531157659518</v>
+        <v>1.110684067663543</v>
       </c>
       <c r="N3">
-        <v>1.062811406365079</v>
+        <v>1.101579352820279</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.04832402857673</v>
+        <v>1.096807235511342</v>
       </c>
       <c r="D4">
-        <v>1.055840991444774</v>
+        <v>1.088401641174331</v>
       </c>
       <c r="E4">
-        <v>1.063835245440416</v>
+        <v>1.107936503054189</v>
       </c>
       <c r="F4">
-        <v>1.067492572003424</v>
+        <v>1.109435906414277</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.056048360113655</v>
+        <v>1.051432454490827</v>
       </c>
       <c r="J4">
-        <v>1.06656747708817</v>
+        <v>1.101064899575203</v>
       </c>
       <c r="K4">
-        <v>1.065309127864015</v>
+        <v>1.09075993146114</v>
       </c>
       <c r="L4">
-        <v>1.073219764643776</v>
+        <v>1.110251198271932</v>
       </c>
       <c r="M4">
-        <v>1.07683934606367</v>
+        <v>1.111747323285974</v>
       </c>
       <c r="N4">
-        <v>1.068082125242635</v>
+        <v>1.102628538026509</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.050971491132233</v>
+        <v>1.097339071755595</v>
       </c>
       <c r="D5">
-        <v>1.057890894549758</v>
+        <v>1.088811630180363</v>
       </c>
       <c r="E5">
-        <v>1.066330280049057</v>
+        <v>1.10844993035217</v>
       </c>
       <c r="F5">
-        <v>1.069907415749992</v>
+        <v>1.109931153218401</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056809255460145</v>
+        <v>1.051555366476053</v>
       </c>
       <c r="J5">
-        <v>1.068733209019431</v>
+        <v>1.10150449213988</v>
       </c>
       <c r="K5">
-        <v>1.067129084035468</v>
+        <v>1.091119968270954</v>
       </c>
       <c r="L5">
-        <v>1.075482825629047</v>
+        <v>1.11071543144351</v>
       </c>
       <c r="M5">
-        <v>1.079024155738682</v>
+        <v>1.112193488944654</v>
       </c>
       <c r="N5">
-        <v>1.070250932761651</v>
+        <v>1.10306875486305</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.051412861782653</v>
+        <v>1.097428323986287</v>
       </c>
       <c r="D6">
-        <v>1.058232646531495</v>
+        <v>1.088880424991255</v>
       </c>
       <c r="E6">
-        <v>1.066746313677272</v>
+        <v>1.108536095979647</v>
       </c>
       <c r="F6">
-        <v>1.070310074831516</v>
+        <v>1.110014265816147</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056935886937692</v>
+        <v>1.05157596502316</v>
       </c>
       <c r="J6">
-        <v>1.069094188577681</v>
+        <v>1.101578251738847</v>
       </c>
       <c r="K6">
-        <v>1.067432364663446</v>
+        <v>1.091180368667799</v>
       </c>
       <c r="L6">
-        <v>1.07586007521875</v>
+        <v>1.110793330835121</v>
       </c>
       <c r="M6">
-        <v>1.079388348815542</v>
+        <v>1.112268354091591</v>
       </c>
       <c r="N6">
-        <v>1.070612424952279</v>
+        <v>1.103142619209107</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.048359617678778</v>
+        <v>1.096814344987596</v>
       </c>
       <c r="D7">
-        <v>1.055868547404561</v>
+        <v>1.08840712243378</v>
       </c>
       <c r="E7">
-        <v>1.063868780379242</v>
+        <v>1.107943366257446</v>
       </c>
       <c r="F7">
-        <v>1.067525029319809</v>
+        <v>1.109442526718249</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056058603446102</v>
+        <v>1.051434099457425</v>
       </c>
       <c r="J7">
-        <v>1.066596595727649</v>
+        <v>1.101070776787301</v>
       </c>
       <c r="K7">
-        <v>1.065333601894594</v>
+        <v>1.09076474574028</v>
       </c>
       <c r="L7">
-        <v>1.073250188688118</v>
+        <v>1.11025740456406</v>
       </c>
       <c r="M7">
-        <v>1.076868718922146</v>
+        <v>1.111753288200917</v>
       </c>
       <c r="N7">
-        <v>1.068111285233921</v>
+        <v>1.102634423584922</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.035112837252409</v>
+        <v>1.094241306486111</v>
       </c>
       <c r="D8">
-        <v>1.045613331478525</v>
+        <v>1.086422308089348</v>
       </c>
       <c r="E8">
-        <v>1.051396300330015</v>
+        <v>1.105459785311805</v>
       </c>
       <c r="F8">
-        <v>1.055453144841986</v>
+        <v>1.10704662391651</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.052220108531163</v>
+        <v>1.05083545596259</v>
       </c>
       <c r="J8">
-        <v>1.055749305637295</v>
+        <v>1.09894227738326</v>
       </c>
       <c r="K8">
-        <v>1.056208953542738</v>
+        <v>1.089019983240834</v>
       </c>
       <c r="L8">
-        <v>1.061922331523302</v>
+        <v>1.108010345134139</v>
       </c>
       <c r="M8">
-        <v>1.06593092084939</v>
+        <v>1.109593335179741</v>
       </c>
       <c r="N8">
-        <v>1.057248590747438</v>
+        <v>1.100502901467586</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.009616864997802</v>
+        <v>1.089680693811884</v>
       </c>
       <c r="D9">
-        <v>1.025895175919008</v>
+        <v>1.082899402208992</v>
       </c>
       <c r="E9">
-        <v>1.027446761567365</v>
+        <v>1.101059324212715</v>
       </c>
       <c r="F9">
-        <v>1.03227382925053</v>
+        <v>1.102800489764309</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.04471232359107</v>
+        <v>1.049758844325521</v>
       </c>
       <c r="J9">
-        <v>1.034834538398137</v>
+        <v>1.095162843395329</v>
       </c>
       <c r="K9">
-        <v>1.038581642235549</v>
+        <v>1.085916213428692</v>
       </c>
       <c r="L9">
-        <v>1.040109693903542</v>
+        <v>1.104023320303172</v>
       </c>
       <c r="M9">
-        <v>1.044864121728413</v>
+        <v>1.105759521215947</v>
       </c>
       <c r="N9">
-        <v>1.036304122139843</v>
+        <v>1.096718100249884</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.050000000000001</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9907875196007935</v>
+        <v>1.086621169558001</v>
       </c>
       <c r="D10">
-        <v>1.011362581701386</v>
+        <v>1.080532808715057</v>
       </c>
       <c r="E10">
-        <v>1.009809019732255</v>
+        <v>1.098108359976055</v>
       </c>
       <c r="F10">
-        <v>1.015206543904556</v>
+        <v>1.099952340982138</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039093314771165</v>
+        <v>1.049026157356718</v>
       </c>
       <c r="J10">
-        <v>1.019371476042255</v>
+        <v>1.092622863038337</v>
       </c>
       <c r="K10">
-        <v>1.025529667712777</v>
+        <v>1.083826494715287</v>
       </c>
       <c r="L10">
-        <v>1.024003399391286</v>
+        <v>1.101345803456547</v>
       </c>
       <c r="M10">
-        <v>1.029306562227784</v>
+        <v>1.103183997532494</v>
       </c>
       <c r="N10">
-        <v>1.020819100461777</v>
+        <v>1.094174512829446</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9820894420263218</v>
+        <v>1.085291550571647</v>
       </c>
       <c r="D11">
-        <v>1.004660922269368</v>
+        <v>1.079503577622787</v>
       </c>
       <c r="E11">
-        <v>1.00167627275192</v>
+        <v>1.096826196217795</v>
       </c>
       <c r="F11">
-        <v>1.007338320618733</v>
+        <v>1.098714691568898</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.036482199530377</v>
+        <v>1.048705274629445</v>
       </c>
       <c r="J11">
-        <v>1.012226781137309</v>
+        <v>1.091517964035012</v>
       </c>
       <c r="K11">
-        <v>1.019495472475807</v>
+        <v>1.082916560006265</v>
       </c>
       <c r="L11">
-        <v>1.016566646109293</v>
+        <v>1.100181545215609</v>
       </c>
       <c r="M11">
-        <v>1.022123161274694</v>
+        <v>1.102063877862033</v>
       </c>
       <c r="N11">
-        <v>1.013664259270559</v>
+        <v>1.093068044742802</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9787649038654296</v>
+        <v>1.084796922006525</v>
       </c>
       <c r="D12">
-        <v>1.002101651984343</v>
+        <v>1.079120584601654</v>
       </c>
       <c r="E12">
-        <v>0.9985703704909753</v>
+        <v>1.096349263878866</v>
       </c>
       <c r="F12">
-        <v>1.00433373925259</v>
+        <v>1.098254293929797</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035482102601037</v>
+        <v>1.048585533317561</v>
       </c>
       <c r="J12">
-        <v>1.009495976810032</v>
+        <v>1.091106773507705</v>
       </c>
       <c r="K12">
-        <v>1.017188698120599</v>
+        <v>1.082577790962741</v>
       </c>
       <c r="L12">
-        <v>1.013725011294951</v>
+        <v>1.099748334646454</v>
       </c>
       <c r="M12">
-        <v>1.019378379989371</v>
+        <v>1.101647059352054</v>
       </c>
       <c r="N12">
-        <v>1.01092957688791</v>
+        <v>1.092656270277782</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9794824855391332</v>
+        <v>1.084903055789405</v>
       </c>
       <c r="D13">
-        <v>1.002653947307107</v>
+        <v>1.079202769448805</v>
       </c>
       <c r="E13">
-        <v>0.9992406398381565</v>
+        <v>1.096451598596587</v>
       </c>
       <c r="F13">
-        <v>1.004982128191481</v>
+        <v>1.098353081879553</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035698057469929</v>
+        <v>1.048611243285163</v>
       </c>
       <c r="J13">
-        <v>1.010085399644122</v>
+        <v>1.091195010975736</v>
       </c>
       <c r="K13">
-        <v>1.017686614226346</v>
+        <v>1.082650493583632</v>
       </c>
       <c r="L13">
-        <v>1.014338319598956</v>
+        <v>1.099841294203851</v>
       </c>
       <c r="M13">
-        <v>1.019970781520056</v>
+        <v>1.10173650287852</v>
       </c>
       <c r="N13">
-        <v>1.011519836770032</v>
+        <v>1.092744633053139</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9818166231984589</v>
+        <v>1.085250679836864</v>
       </c>
       <c r="D14">
-        <v>1.004450855403169</v>
+        <v>1.079471933494394</v>
       </c>
       <c r="E14">
-        <v>1.001421341903088</v>
+        <v>1.096786786834828</v>
       </c>
       <c r="F14">
-        <v>1.007091699604325</v>
+        <v>1.098676648942264</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.036400170131097</v>
+        <v>1.048695388057935</v>
       </c>
       <c r="J14">
-        <v>1.012002683615737</v>
+        <v>1.091483990963825</v>
       </c>
       <c r="K14">
-        <v>1.019306179795193</v>
+        <v>1.08288857323543</v>
       </c>
       <c r="L14">
-        <v>1.016333437228676</v>
+        <v>1.100145751380918</v>
       </c>
       <c r="M14">
-        <v>1.021897899788939</v>
+        <v>1.10202943905598</v>
       </c>
       <c r="N14">
-        <v>1.013439843504801</v>
+        <v>1.093034023425957</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9832419519415135</v>
+        <v>1.085464762529425</v>
       </c>
       <c r="D15">
-        <v>1.005548431859272</v>
+        <v>1.07963768228193</v>
       </c>
       <c r="E15">
-        <v>1.002753321357938</v>
+        <v>1.096993216648242</v>
       </c>
       <c r="F15">
-        <v>1.008380273885409</v>
+        <v>1.09887591860509</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.036828645701066</v>
+        <v>1.04874715919246</v>
       </c>
       <c r="J15">
-        <v>1.013173472184421</v>
+        <v>1.091661936867077</v>
       </c>
       <c r="K15">
-        <v>1.020295115630677</v>
+        <v>1.083035158268806</v>
       </c>
       <c r="L15">
-        <v>1.017551860204004</v>
+        <v>1.100333237063616</v>
       </c>
       <c r="M15">
-        <v>1.023074802974244</v>
+        <v>1.102209825901155</v>
       </c>
       <c r="N15">
-        <v>1.014612294727544</v>
+        <v>1.093212222032802</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9913523483335227</v>
+        <v>1.086709308296518</v>
       </c>
       <c r="D16">
-        <v>1.011798043001734</v>
+        <v>1.080601019495058</v>
       </c>
       <c r="E16">
-        <v>1.010337468185465</v>
+        <v>1.09819335887102</v>
       </c>
       <c r="F16">
-        <v>1.015717840685162</v>
+        <v>1.100034385569339</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039262574773366</v>
+        <v>1.049047376358315</v>
       </c>
       <c r="J16">
-        <v>1.019835418809625</v>
+        <v>1.092696083008541</v>
       </c>
       <c r="K16">
-        <v>1.025921436216411</v>
+        <v>1.083886775791759</v>
       </c>
       <c r="L16">
-        <v>1.024486414603271</v>
+        <v>1.101422966954641</v>
       </c>
       <c r="M16">
-        <v>1.029773125771761</v>
+        <v>1.103258231237904</v>
       </c>
       <c r="N16">
-        <v>1.021283702081092</v>
+        <v>1.094247836780405</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9962862995961591</v>
+        <v>1.08748867039216</v>
       </c>
       <c r="D17">
-        <v>1.015603267041075</v>
+        <v>1.081204083552457</v>
       </c>
       <c r="E17">
-        <v>1.014955318253237</v>
+        <v>1.098944989101129</v>
       </c>
       <c r="F17">
-        <v>1.020185984236101</v>
+        <v>1.100759873193946</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040739411821696</v>
+        <v>1.049234719624274</v>
       </c>
       <c r="J17">
-        <v>1.023887941693239</v>
+        <v>1.093343403925394</v>
       </c>
       <c r="K17">
-        <v>1.029343135863397</v>
+        <v>1.08441960316075</v>
       </c>
       <c r="L17">
-        <v>1.028706111156999</v>
+        <v>1.102105205817583</v>
       </c>
       <c r="M17">
-        <v>1.033849101071267</v>
+        <v>1.10391454213453</v>
       </c>
       <c r="N17">
-        <v>1.025341980012032</v>
+        <v>1.094896076967209</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9991125342750276</v>
+        <v>1.087942795230228</v>
       </c>
       <c r="D18">
-        <v>1.017783990504926</v>
+        <v>1.081555409513492</v>
       </c>
       <c r="E18">
-        <v>1.017601842744047</v>
+        <v>1.099382981507624</v>
       </c>
       <c r="F18">
-        <v>1.022746843390689</v>
+        <v>1.101182616475863</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041583913901271</v>
+        <v>1.049343644530046</v>
       </c>
       <c r="J18">
-        <v>1.026209110972257</v>
+        <v>1.093720487375789</v>
       </c>
       <c r="K18">
-        <v>1.031302651032891</v>
+        <v>1.084729904042959</v>
       </c>
       <c r="L18">
-        <v>1.031123508281343</v>
+        <v>1.102502675172604</v>
       </c>
       <c r="M18">
-        <v>1.036184157725192</v>
+        <v>1.104296885664707</v>
       </c>
       <c r="N18">
-        <v>1.027666445617669</v>
+        <v>1.095273695919356</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.000067766301565</v>
+        <v>1.088097562102908</v>
       </c>
       <c r="D19">
-        <v>1.018521211725764</v>
+        <v>1.081675129994775</v>
       </c>
       <c r="E19">
-        <v>1.018496556658687</v>
+        <v>1.099532254889807</v>
       </c>
       <c r="F19">
-        <v>1.023612616817509</v>
+        <v>1.101326690174152</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.041869092856393</v>
+        <v>1.049380726068707</v>
       </c>
       <c r="J19">
-        <v>1.026993601486541</v>
+        <v>1.093848980935198</v>
       </c>
       <c r="K19">
-        <v>1.031964852451839</v>
+        <v>1.084835626300305</v>
       </c>
       <c r="L19">
-        <v>1.031940601129673</v>
+        <v>1.102638123017376</v>
       </c>
       <c r="M19">
-        <v>1.036973416978031</v>
+        <v>1.104427175549053</v>
       </c>
       <c r="N19">
-        <v>1.028452050198465</v>
+        <v>1.095402371954358</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9957623540541295</v>
+        <v>1.087405100370104</v>
       </c>
       <c r="D20">
-        <v>1.015199071915514</v>
+        <v>1.081139425204276</v>
       </c>
       <c r="E20">
-        <v>1.01446479669328</v>
+        <v>1.098864389974226</v>
       </c>
       <c r="F20">
-        <v>1.019711350648106</v>
+        <v>1.100682078975199</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040582733280918</v>
+        <v>1.049214655637521</v>
       </c>
       <c r="J20">
-        <v>1.02345761288458</v>
+        <v>1.093274003126143</v>
       </c>
       <c r="K20">
-        <v>1.028979827165442</v>
+        <v>1.084362486454728</v>
       </c>
       <c r="L20">
-        <v>1.028257980837388</v>
+        <v>1.102032056707498</v>
       </c>
       <c r="M20">
-        <v>1.033416234095639</v>
+        <v>1.103844175100638</v>
       </c>
       <c r="N20">
-        <v>1.024911040087105</v>
+        <v>1.094826577610863</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9811319716013389</v>
+        <v>1.08514833408599</v>
       </c>
       <c r="D21">
-        <v>1.003923719916805</v>
+        <v>1.079392690602919</v>
       </c>
       <c r="E21">
-        <v>1.000781623251365</v>
+        <v>1.096688101192788</v>
       </c>
       <c r="F21">
-        <v>1.006472838574912</v>
+        <v>1.098581385436957</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.036194280887139</v>
+        <v>1.048670624788703</v>
       </c>
       <c r="J21">
-        <v>1.01144030148291</v>
+        <v>1.091398915304674</v>
       </c>
       <c r="K21">
-        <v>1.018831135574583</v>
+        <v>1.082818486344892</v>
       </c>
       <c r="L21">
-        <v>1.015748202656271</v>
+        <v>1.100056117290688</v>
       </c>
       <c r="M21">
-        <v>1.021332610012856</v>
+        <v>1.101943197688477</v>
       </c>
       <c r="N21">
-        <v>1.01287666272484</v>
+        <v>1.092948826949612</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9713833828995968</v>
+        <v>1.083725070697813</v>
       </c>
       <c r="D22">
-        <v>0.9964239598478374</v>
+        <v>1.078290443770972</v>
       </c>
       <c r="E22">
-        <v>0.9916794474939605</v>
+        <v>1.095315838788274</v>
       </c>
       <c r="F22">
-        <v>0.9976682645377443</v>
+        <v>1.097256653739682</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033258000536074</v>
+        <v>1.048325378687608</v>
       </c>
       <c r="J22">
-        <v>1.00343307610101</v>
+        <v>1.090215439570485</v>
       </c>
       <c r="K22">
-        <v>1.012066593223688</v>
+        <v>1.081843198017558</v>
       </c>
       <c r="L22">
-        <v>1.007417558057484</v>
+        <v>1.098809397415801</v>
       </c>
       <c r="M22">
-        <v>1.013286055518027</v>
+        <v>1.100743592617261</v>
       </c>
       <c r="N22">
-        <v>1.004858066164455</v>
+        <v>1.091763670544134</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9766080667964422</v>
+        <v>1.084479989483212</v>
       </c>
       <c r="D23">
-        <v>1.000441981266714</v>
+        <v>1.078875151286252</v>
       </c>
       <c r="E23">
-        <v>0.996556143697988</v>
+        <v>1.096043682270997</v>
       </c>
       <c r="F23">
-        <v>1.002385315837442</v>
+        <v>1.097959299897495</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034832720651188</v>
+        <v>1.048508705015515</v>
       </c>
       <c r="J23">
-        <v>1.007724370719473</v>
+        <v>1.090843258932372</v>
       </c>
       <c r="K23">
-        <v>1.01569207888964</v>
+        <v>1.082360650322769</v>
       </c>
       <c r="L23">
-        <v>1.011881732822134</v>
+        <v>1.099470728254361</v>
       </c>
       <c r="M23">
-        <v>1.01759794712368</v>
+        <v>1.101379948326191</v>
       </c>
       <c r="N23">
-        <v>1.009155454913495</v>
+        <v>1.092392381481526</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9959992612528419</v>
+        <v>1.087442863498668</v>
       </c>
       <c r="D24">
-        <v>1.015381829567862</v>
+        <v>1.081168642860376</v>
       </c>
       <c r="E24">
-        <v>1.014686586703465</v>
+        <v>1.098900810550079</v>
       </c>
       <c r="F24">
-        <v>1.019925956482181</v>
+        <v>1.100717232135632</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040653581577445</v>
+        <v>1.049223722768536</v>
       </c>
       <c r="J24">
-        <v>1.023652190895513</v>
+        <v>1.093305363867116</v>
       </c>
       <c r="K24">
-        <v>1.029144102335729</v>
+        <v>1.084388296544119</v>
       </c>
       <c r="L24">
-        <v>1.028460606522745</v>
+        <v>1.102065111090516</v>
       </c>
       <c r="M24">
-        <v>1.033611958357251</v>
+        <v>1.103875972390869</v>
       </c>
       <c r="N24">
-        <v>1.025105894421132</v>
+        <v>1.094857982887685</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.01649900471966</v>
+        <v>1.09086299913703</v>
       </c>
       <c r="D25">
-        <v>1.031213976530235</v>
+        <v>1.08381326153325</v>
       </c>
       <c r="E25">
-        <v>1.033904028228078</v>
+        <v>1.102199918062517</v>
       </c>
       <c r="F25">
-        <v>1.038523086861636</v>
+        <v>1.103901202085497</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046751984713197</v>
+        <v>1.050039783433082</v>
       </c>
       <c r="J25">
-        <v>1.040483589601294</v>
+        <v>1.096143429557672</v>
       </c>
       <c r="K25">
-        <v>1.043346316532472</v>
+        <v>1.086722169057757</v>
       </c>
       <c r="L25">
-        <v>1.045997876701093</v>
+        <v>1.105057419973589</v>
       </c>
       <c r="M25">
-        <v>1.050551429833165</v>
+        <v>1.106754041295664</v>
       </c>
       <c r="N25">
-        <v>1.041961195643664</v>
+        <v>1.097700078957052</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_132/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_132/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.093577141556132</v>
+        <v>1.031568454575867</v>
       </c>
       <c r="D2">
-        <v>1.085909644096236</v>
+        <v>1.042870215965381</v>
       </c>
       <c r="E2">
-        <v>1.104818817500664</v>
+        <v>1.048062427463748</v>
       </c>
       <c r="F2">
-        <v>1.10642821456568</v>
+        <v>1.052226341101202</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050679878400681</v>
+        <v>1.051185010426292</v>
       </c>
       <c r="J2">
-        <v>1.098392401064319</v>
+        <v>1.052844280440362</v>
       </c>
       <c r="K2">
-        <v>1.088568854182986</v>
+        <v>1.053762941591414</v>
       </c>
       <c r="L2">
-        <v>1.107430037964381</v>
+        <v>1.058890449229347</v>
       </c>
       <c r="M2">
-        <v>1.109035432101395</v>
+        <v>1.063003047302845</v>
       </c>
       <c r="N2">
-        <v>1.0999522442612</v>
+        <v>1.054339440081515</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.095540298482043</v>
+        <v>1.041893954415722</v>
       </c>
       <c r="D3">
-        <v>1.087424598182881</v>
+        <v>1.050862576696452</v>
       </c>
       <c r="E3">
-        <v>1.106713533060759</v>
+        <v>1.057778606604661</v>
       </c>
       <c r="F3">
-        <v>1.108256164959711</v>
+        <v>1.06163049489763</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051138500537724</v>
+        <v>1.054191308184453</v>
       </c>
       <c r="J3">
-        <v>1.100017202219391</v>
+        <v>1.061304232621461</v>
       </c>
       <c r="K3">
-        <v>1.089901417140266</v>
+        <v>1.060883534930844</v>
       </c>
       <c r="L3">
-        <v>1.109144990456562</v>
+        <v>1.067721955182396</v>
       </c>
       <c r="M3">
-        <v>1.110684067663543</v>
+        <v>1.07153115765952</v>
       </c>
       <c r="N3">
-        <v>1.101579352820279</v>
+        <v>1.06281140636508</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.096807235511342</v>
+        <v>1.04832402857673</v>
       </c>
       <c r="D4">
-        <v>1.088401641174331</v>
+        <v>1.055840991444774</v>
       </c>
       <c r="E4">
-        <v>1.107936503054189</v>
+        <v>1.063835245440415</v>
       </c>
       <c r="F4">
-        <v>1.109435906414277</v>
+        <v>1.067492572003423</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.051432454490827</v>
+        <v>1.056048360113655</v>
       </c>
       <c r="J4">
-        <v>1.101064899575203</v>
+        <v>1.06656747708817</v>
       </c>
       <c r="K4">
-        <v>1.09075993146114</v>
+        <v>1.065309127864015</v>
       </c>
       <c r="L4">
-        <v>1.110251198271932</v>
+        <v>1.073219764643776</v>
       </c>
       <c r="M4">
-        <v>1.111747323285974</v>
+        <v>1.076839346063669</v>
       </c>
       <c r="N4">
-        <v>1.102628538026509</v>
+        <v>1.068082125242635</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.097339071755595</v>
+        <v>1.050971491132232</v>
       </c>
       <c r="D5">
-        <v>1.088811630180363</v>
+        <v>1.057890894549757</v>
       </c>
       <c r="E5">
-        <v>1.10844993035217</v>
+        <v>1.066330280049056</v>
       </c>
       <c r="F5">
-        <v>1.109931153218401</v>
+        <v>1.06990741574999</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051555366476053</v>
+        <v>1.056809255460144</v>
       </c>
       <c r="J5">
-        <v>1.10150449213988</v>
+        <v>1.068733209019429</v>
       </c>
       <c r="K5">
-        <v>1.091119968270954</v>
+        <v>1.067129084035467</v>
       </c>
       <c r="L5">
-        <v>1.11071543144351</v>
+        <v>1.075482825629046</v>
       </c>
       <c r="M5">
-        <v>1.112193488944654</v>
+        <v>1.079024155738681</v>
       </c>
       <c r="N5">
-        <v>1.10306875486305</v>
+        <v>1.07025093276165</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.097428323986287</v>
+        <v>1.051412861782653</v>
       </c>
       <c r="D6">
-        <v>1.088880424991255</v>
+        <v>1.058232646531496</v>
       </c>
       <c r="E6">
-        <v>1.108536095979647</v>
+        <v>1.066746313677273</v>
       </c>
       <c r="F6">
-        <v>1.110014265816147</v>
+        <v>1.070310074831517</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05157596502316</v>
+        <v>1.056935886937692</v>
       </c>
       <c r="J6">
-        <v>1.101578251738847</v>
+        <v>1.069094188577681</v>
       </c>
       <c r="K6">
-        <v>1.091180368667799</v>
+        <v>1.067432364663446</v>
       </c>
       <c r="L6">
-        <v>1.110793330835121</v>
+        <v>1.07586007521875</v>
       </c>
       <c r="M6">
-        <v>1.112268354091591</v>
+        <v>1.079388348815542</v>
       </c>
       <c r="N6">
-        <v>1.103142619209107</v>
+        <v>1.070612424952279</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.096814344987596</v>
+        <v>1.048359617678779</v>
       </c>
       <c r="D7">
-        <v>1.08840712243378</v>
+        <v>1.055868547404561</v>
       </c>
       <c r="E7">
-        <v>1.107943366257446</v>
+        <v>1.063868780379243</v>
       </c>
       <c r="F7">
-        <v>1.109442526718249</v>
+        <v>1.06752502931981</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.051434099457425</v>
+        <v>1.056058603446102</v>
       </c>
       <c r="J7">
-        <v>1.101070776787301</v>
+        <v>1.06659659572765</v>
       </c>
       <c r="K7">
-        <v>1.09076474574028</v>
+        <v>1.065333601894595</v>
       </c>
       <c r="L7">
-        <v>1.11025740456406</v>
+        <v>1.073250188688118</v>
       </c>
       <c r="M7">
-        <v>1.111753288200917</v>
+        <v>1.076868718922147</v>
       </c>
       <c r="N7">
-        <v>1.102634423584922</v>
+        <v>1.068111285233922</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.094241306486111</v>
+        <v>1.03511283725241</v>
       </c>
       <c r="D8">
-        <v>1.086422308089348</v>
+        <v>1.045613331478527</v>
       </c>
       <c r="E8">
-        <v>1.105459785311805</v>
+        <v>1.051396300330017</v>
       </c>
       <c r="F8">
-        <v>1.10704662391651</v>
+        <v>1.055453144841987</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.05083545596259</v>
+        <v>1.052220108531163</v>
       </c>
       <c r="J8">
-        <v>1.09894227738326</v>
+        <v>1.055749305637297</v>
       </c>
       <c r="K8">
-        <v>1.089019983240834</v>
+        <v>1.056208953542739</v>
       </c>
       <c r="L8">
-        <v>1.108010345134139</v>
+        <v>1.061922331523304</v>
       </c>
       <c r="M8">
-        <v>1.109593335179741</v>
+        <v>1.065930920849391</v>
       </c>
       <c r="N8">
-        <v>1.100502901467586</v>
+        <v>1.057248590747439</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.089680693811884</v>
+        <v>1.009616864997801</v>
       </c>
       <c r="D9">
-        <v>1.082899402208992</v>
+        <v>1.025895175919008</v>
       </c>
       <c r="E9">
-        <v>1.101059324212715</v>
+        <v>1.027446761567365</v>
       </c>
       <c r="F9">
-        <v>1.102800489764309</v>
+        <v>1.03227382925053</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.049758844325521</v>
+        <v>1.04471232359107</v>
       </c>
       <c r="J9">
-        <v>1.095162843395329</v>
+        <v>1.034834538398137</v>
       </c>
       <c r="K9">
-        <v>1.085916213428692</v>
+        <v>1.038581642235548</v>
       </c>
       <c r="L9">
-        <v>1.104023320303172</v>
+        <v>1.040109693903541</v>
       </c>
       <c r="M9">
-        <v>1.105759521215947</v>
+        <v>1.044864121728412</v>
       </c>
       <c r="N9">
-        <v>1.096718100249884</v>
+        <v>1.036304122139843</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.086621169558001</v>
+        <v>0.9907875196007884</v>
       </c>
       <c r="D10">
-        <v>1.080532808715057</v>
+        <v>1.011362581701382</v>
       </c>
       <c r="E10">
-        <v>1.098108359976055</v>
+        <v>1.00980901973225</v>
       </c>
       <c r="F10">
-        <v>1.099952340982138</v>
+        <v>1.015206543904551</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049026157356718</v>
+        <v>1.039093314771163</v>
       </c>
       <c r="J10">
-        <v>1.092622863038337</v>
+        <v>1.01937147604225</v>
       </c>
       <c r="K10">
-        <v>1.083826494715287</v>
+        <v>1.025529667712773</v>
       </c>
       <c r="L10">
-        <v>1.101345803456547</v>
+        <v>1.024003399391281</v>
       </c>
       <c r="M10">
-        <v>1.103183997532494</v>
+        <v>1.02930656222778</v>
       </c>
       <c r="N10">
-        <v>1.094174512829446</v>
+        <v>1.020819100461772</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.085291550571647</v>
+        <v>0.9820894420263244</v>
       </c>
       <c r="D11">
-        <v>1.079503577622787</v>
+        <v>1.00466092226937</v>
       </c>
       <c r="E11">
-        <v>1.096826196217795</v>
+        <v>1.001676272751923</v>
       </c>
       <c r="F11">
-        <v>1.098714691568898</v>
+        <v>1.007338320618736</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.048705274629445</v>
+        <v>1.036482199530378</v>
       </c>
       <c r="J11">
-        <v>1.091517964035012</v>
+        <v>1.012226781137312</v>
       </c>
       <c r="K11">
-        <v>1.082916560006265</v>
+        <v>1.019495472475809</v>
       </c>
       <c r="L11">
-        <v>1.100181545215609</v>
+        <v>1.016566646109295</v>
       </c>
       <c r="M11">
-        <v>1.102063877862033</v>
+        <v>1.022123161274697</v>
       </c>
       <c r="N11">
-        <v>1.093068044742802</v>
+        <v>1.013664259270562</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.084796922006525</v>
+        <v>0.9787649038654304</v>
       </c>
       <c r="D12">
-        <v>1.079120584601654</v>
+        <v>1.002101651984344</v>
       </c>
       <c r="E12">
-        <v>1.096349263878866</v>
+        <v>0.998570370490976</v>
       </c>
       <c r="F12">
-        <v>1.098254293929797</v>
+        <v>1.004333739252591</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.048585533317561</v>
+        <v>1.035482102601037</v>
       </c>
       <c r="J12">
-        <v>1.091106773507705</v>
+        <v>1.009495976810033</v>
       </c>
       <c r="K12">
-        <v>1.082577790962741</v>
+        <v>1.017188698120599</v>
       </c>
       <c r="L12">
-        <v>1.099748334646454</v>
+        <v>1.013725011294951</v>
       </c>
       <c r="M12">
-        <v>1.101647059352054</v>
+        <v>1.019378379989372</v>
       </c>
       <c r="N12">
-        <v>1.092656270277782</v>
+        <v>1.01092957688791</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.084903055789405</v>
+        <v>0.9794824855391321</v>
       </c>
       <c r="D13">
-        <v>1.079202769448805</v>
+        <v>1.002653947307106</v>
       </c>
       <c r="E13">
-        <v>1.096451598596587</v>
+        <v>0.9992406398381549</v>
       </c>
       <c r="F13">
-        <v>1.098353081879553</v>
+        <v>1.00498212819148</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.048611243285163</v>
+        <v>1.035698057469929</v>
       </c>
       <c r="J13">
-        <v>1.091195010975736</v>
+        <v>1.010085399644121</v>
       </c>
       <c r="K13">
-        <v>1.082650493583632</v>
+        <v>1.017686614226345</v>
       </c>
       <c r="L13">
-        <v>1.099841294203851</v>
+        <v>1.014338319598955</v>
       </c>
       <c r="M13">
-        <v>1.10173650287852</v>
+        <v>1.019970781520055</v>
       </c>
       <c r="N13">
-        <v>1.092744633053139</v>
+        <v>1.01151983677003</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.085250679836864</v>
+        <v>0.981816623198463</v>
       </c>
       <c r="D14">
-        <v>1.079471933494394</v>
+        <v>1.004450855403173</v>
       </c>
       <c r="E14">
-        <v>1.096786786834828</v>
+        <v>1.001421341903092</v>
       </c>
       <c r="F14">
-        <v>1.098676648942264</v>
+        <v>1.007091699604328</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.048695388057935</v>
+        <v>1.036400170131098</v>
       </c>
       <c r="J14">
-        <v>1.091483990963825</v>
+        <v>1.012002683615741</v>
       </c>
       <c r="K14">
-        <v>1.08288857323543</v>
+        <v>1.019306179795196</v>
       </c>
       <c r="L14">
-        <v>1.100145751380918</v>
+        <v>1.01633343722868</v>
       </c>
       <c r="M14">
-        <v>1.10202943905598</v>
+        <v>1.021897899788943</v>
       </c>
       <c r="N14">
-        <v>1.093034023425957</v>
+        <v>1.013439843504805</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.085464762529425</v>
+        <v>0.9832419519415088</v>
       </c>
       <c r="D15">
-        <v>1.07963768228193</v>
+        <v>1.005548431859268</v>
       </c>
       <c r="E15">
-        <v>1.096993216648242</v>
+        <v>1.002753321357933</v>
       </c>
       <c r="F15">
-        <v>1.09887591860509</v>
+        <v>1.008380273885405</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.04874715919246</v>
+        <v>1.036828645701065</v>
       </c>
       <c r="J15">
-        <v>1.091661936867077</v>
+        <v>1.013173472184417</v>
       </c>
       <c r="K15">
-        <v>1.083035158268806</v>
+        <v>1.020295115630673</v>
       </c>
       <c r="L15">
-        <v>1.100333237063616</v>
+        <v>1.017551860203999</v>
       </c>
       <c r="M15">
-        <v>1.102209825901155</v>
+        <v>1.02307480297424</v>
       </c>
       <c r="N15">
-        <v>1.093212222032802</v>
+        <v>1.01461229472754</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.086709308296518</v>
+        <v>0.9913523483335226</v>
       </c>
       <c r="D16">
-        <v>1.080601019495058</v>
+        <v>1.011798043001734</v>
       </c>
       <c r="E16">
-        <v>1.09819335887102</v>
+        <v>1.010337468185465</v>
       </c>
       <c r="F16">
-        <v>1.100034385569339</v>
+        <v>1.015717840685162</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049047376358315</v>
+        <v>1.039262574773366</v>
       </c>
       <c r="J16">
-        <v>1.092696083008541</v>
+        <v>1.019835418809625</v>
       </c>
       <c r="K16">
-        <v>1.083886775791759</v>
+        <v>1.025921436216411</v>
       </c>
       <c r="L16">
-        <v>1.101422966954641</v>
+        <v>1.024486414603271</v>
       </c>
       <c r="M16">
-        <v>1.103258231237904</v>
+        <v>1.029773125771761</v>
       </c>
       <c r="N16">
-        <v>1.094247836780405</v>
+        <v>1.021283702081093</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.08748867039216</v>
+        <v>0.9962862995961573</v>
       </c>
       <c r="D17">
-        <v>1.081204083552457</v>
+        <v>1.015603267041073</v>
       </c>
       <c r="E17">
-        <v>1.098944989101129</v>
+        <v>1.014955318253236</v>
       </c>
       <c r="F17">
-        <v>1.100759873193946</v>
+        <v>1.020185984236099</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049234719624274</v>
+        <v>1.040739411821695</v>
       </c>
       <c r="J17">
-        <v>1.093343403925394</v>
+        <v>1.023887941693237</v>
       </c>
       <c r="K17">
-        <v>1.08441960316075</v>
+        <v>1.029343135863395</v>
       </c>
       <c r="L17">
-        <v>1.102105205817583</v>
+        <v>1.028706111156998</v>
       </c>
       <c r="M17">
-        <v>1.10391454213453</v>
+        <v>1.033849101071265</v>
       </c>
       <c r="N17">
-        <v>1.094896076967209</v>
+        <v>1.02534198001203</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.087942795230228</v>
+        <v>0.9991125342750266</v>
       </c>
       <c r="D18">
-        <v>1.081555409513492</v>
+        <v>1.017783990504925</v>
       </c>
       <c r="E18">
-        <v>1.099382981507624</v>
+        <v>1.017601842744047</v>
       </c>
       <c r="F18">
-        <v>1.101182616475863</v>
+        <v>1.022746843390689</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.049343644530046</v>
+        <v>1.041583913901271</v>
       </c>
       <c r="J18">
-        <v>1.093720487375789</v>
+        <v>1.026209110972256</v>
       </c>
       <c r="K18">
-        <v>1.084729904042959</v>
+        <v>1.03130265103289</v>
       </c>
       <c r="L18">
-        <v>1.102502675172604</v>
+        <v>1.031123508281342</v>
       </c>
       <c r="M18">
-        <v>1.104296885664707</v>
+        <v>1.036184157725191</v>
       </c>
       <c r="N18">
-        <v>1.095273695919356</v>
+        <v>1.027666445617667</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.088097562102908</v>
+        <v>1.000067766301566</v>
       </c>
       <c r="D19">
-        <v>1.081675129994775</v>
+        <v>1.018521211725765</v>
       </c>
       <c r="E19">
-        <v>1.099532254889807</v>
+        <v>1.018496556658688</v>
       </c>
       <c r="F19">
-        <v>1.101326690174152</v>
+        <v>1.023612616817511</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.049380726068707</v>
+        <v>1.041869092856393</v>
       </c>
       <c r="J19">
-        <v>1.093848980935198</v>
+        <v>1.026993601486543</v>
       </c>
       <c r="K19">
-        <v>1.084835626300305</v>
+        <v>1.031964852451841</v>
       </c>
       <c r="L19">
-        <v>1.102638123017376</v>
+        <v>1.031940601129674</v>
       </c>
       <c r="M19">
-        <v>1.104427175549053</v>
+        <v>1.036973416978032</v>
       </c>
       <c r="N19">
-        <v>1.095402371954358</v>
+        <v>1.028452050198466</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.087405100370104</v>
+        <v>0.9957623540541291</v>
       </c>
       <c r="D20">
-        <v>1.081139425204276</v>
+        <v>1.015199071915514</v>
       </c>
       <c r="E20">
-        <v>1.098864389974226</v>
+        <v>1.01446479669328</v>
       </c>
       <c r="F20">
-        <v>1.100682078975199</v>
+        <v>1.019711350648105</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049214655637521</v>
+        <v>1.040582733280918</v>
       </c>
       <c r="J20">
-        <v>1.093274003126143</v>
+        <v>1.023457612884579</v>
       </c>
       <c r="K20">
-        <v>1.084362486454728</v>
+        <v>1.028979827165441</v>
       </c>
       <c r="L20">
-        <v>1.102032056707498</v>
+        <v>1.028257980837387</v>
       </c>
       <c r="M20">
-        <v>1.103844175100638</v>
+        <v>1.033416234095639</v>
       </c>
       <c r="N20">
-        <v>1.094826577610863</v>
+        <v>1.024911040087105</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.08514833408599</v>
+        <v>0.9811319716013371</v>
       </c>
       <c r="D21">
-        <v>1.079392690602919</v>
+        <v>1.003923719916803</v>
       </c>
       <c r="E21">
-        <v>1.096688101192788</v>
+        <v>1.000781623251363</v>
       </c>
       <c r="F21">
-        <v>1.098581385436957</v>
+        <v>1.00647283857491</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.048670624788703</v>
+        <v>1.036194280887138</v>
       </c>
       <c r="J21">
-        <v>1.091398915304674</v>
+        <v>1.011440301482908</v>
       </c>
       <c r="K21">
-        <v>1.082818486344892</v>
+        <v>1.018831135574582</v>
       </c>
       <c r="L21">
-        <v>1.100056117290688</v>
+        <v>1.01574820265627</v>
       </c>
       <c r="M21">
-        <v>1.101943197688477</v>
+        <v>1.021332610012854</v>
       </c>
       <c r="N21">
-        <v>1.092948826949612</v>
+        <v>1.012876662724838</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.083725070697813</v>
+        <v>0.9713833828995949</v>
       </c>
       <c r="D22">
-        <v>1.078290443770972</v>
+        <v>0.9964239598478359</v>
       </c>
       <c r="E22">
-        <v>1.095315838788274</v>
+        <v>0.9916794474939583</v>
       </c>
       <c r="F22">
-        <v>1.097256653739682</v>
+        <v>0.9976682645377423</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.048325378687608</v>
+        <v>1.033258000536073</v>
       </c>
       <c r="J22">
-        <v>1.090215439570485</v>
+        <v>1.003433076101008</v>
       </c>
       <c r="K22">
-        <v>1.081843198017558</v>
+        <v>1.012066593223686</v>
       </c>
       <c r="L22">
-        <v>1.098809397415801</v>
+        <v>1.007417558057482</v>
       </c>
       <c r="M22">
-        <v>1.100743592617261</v>
+        <v>1.013286055518025</v>
       </c>
       <c r="N22">
-        <v>1.091763670544134</v>
+        <v>1.004858066164454</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.084479989483212</v>
+        <v>0.976608066796441</v>
       </c>
       <c r="D23">
-        <v>1.078875151286252</v>
+        <v>1.000441981266713</v>
       </c>
       <c r="E23">
-        <v>1.096043682270997</v>
+        <v>0.996556143697987</v>
       </c>
       <c r="F23">
-        <v>1.097959299897495</v>
+        <v>1.002385315837441</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048508705015515</v>
+        <v>1.034832720651188</v>
       </c>
       <c r="J23">
-        <v>1.090843258932372</v>
+        <v>1.007724370719471</v>
       </c>
       <c r="K23">
-        <v>1.082360650322769</v>
+        <v>1.015692078889639</v>
       </c>
       <c r="L23">
-        <v>1.099470728254361</v>
+        <v>1.011881732822133</v>
       </c>
       <c r="M23">
-        <v>1.101379948326191</v>
+        <v>1.01759794712368</v>
       </c>
       <c r="N23">
-        <v>1.092392381481526</v>
+        <v>1.009155454913494</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.087442863498668</v>
+        <v>0.9959992612528452</v>
       </c>
       <c r="D24">
-        <v>1.081168642860376</v>
+        <v>1.015381829567865</v>
       </c>
       <c r="E24">
-        <v>1.098900810550079</v>
+        <v>1.014686586703469</v>
       </c>
       <c r="F24">
-        <v>1.100717232135632</v>
+        <v>1.019925956482184</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049223722768536</v>
+        <v>1.040653581577446</v>
       </c>
       <c r="J24">
-        <v>1.093305363867116</v>
+        <v>1.023652190895516</v>
       </c>
       <c r="K24">
-        <v>1.084388296544119</v>
+        <v>1.029144102335732</v>
       </c>
       <c r="L24">
-        <v>1.102065111090516</v>
+        <v>1.028460606522749</v>
       </c>
       <c r="M24">
-        <v>1.103875972390869</v>
+        <v>1.033611958357254</v>
       </c>
       <c r="N24">
-        <v>1.094857982887685</v>
+        <v>1.025105894421136</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.09086299913703</v>
+        <v>1.01649900471966</v>
       </c>
       <c r="D25">
-        <v>1.08381326153325</v>
+        <v>1.031213976530236</v>
       </c>
       <c r="E25">
-        <v>1.102199918062517</v>
+        <v>1.033904028228079</v>
       </c>
       <c r="F25">
-        <v>1.103901202085497</v>
+        <v>1.038523086861637</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.050039783433082</v>
+        <v>1.046751984713197</v>
       </c>
       <c r="J25">
-        <v>1.096143429557672</v>
+        <v>1.040483589601294</v>
       </c>
       <c r="K25">
-        <v>1.086722169057757</v>
+        <v>1.043346316532473</v>
       </c>
       <c r="L25">
-        <v>1.105057419973589</v>
+        <v>1.045997876701094</v>
       </c>
       <c r="M25">
-        <v>1.106754041295664</v>
+        <v>1.050551429833166</v>
       </c>
       <c r="N25">
-        <v>1.097700078957052</v>
+        <v>1.041961195643664</v>
       </c>
     </row>
   </sheetData>
